--- a/biology/Botanique/Magnolia_guerrerensis/Magnolia_guerrerensis.xlsx
+++ b/biology/Botanique/Magnolia_guerrerensis/Magnolia_guerrerensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Magnolia guerrerensis est une espèce d'arbres de la famille des Mangoliacées endémique du Mexique.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbre mesure entre 6 et 20 m de haut[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbre mesure entre 6 et 20 m de haut.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'état de Guerrero au Mexique. Elle est présente dans la forêt de nuage situé au centre du Guerrero, qui est caractérisé par une période sèche de six mois. Elle est associée avec des arbres des genres Persea, Quercus (chênes), Pinus (pins) et Clethra. Elle pousse dans un sol profond avec une épaisse litière de feuilles[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'état de Guerrero au Mexique. Elle est présente dans la forêt de nuage situé au centre du Guerrero, qui est caractérisé par une période sèche de six mois. Elle est associée avec des arbres des genres Persea, Quercus (chênes), Pinus (pins) et Clethra. Elle pousse dans un sol profond avec une épaisse litière de feuilles.
 </t>
         </is>
       </c>
